--- a/face_recognition_service/tcc/resultados.xlsx
+++ b/face_recognition_service/tcc/resultados.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Tempo médio para comparar cada imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5872 segundos</t>
+    <t xml:space="preserve">1.6155 segundos</t>
   </si>
   <si>
     <t xml:space="preserve">Quantidade de imagens reconhecidas com sucesso</t>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">Tamanho médio das imagens</t>
   </si>
   <si>
-    <t xml:space="preserve">40.09 KB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1796 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">928.29 KB</t>
+    <t xml:space="preserve">38.26 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0571 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915.00 KB</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,7 +288,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +304,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,7 +334,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +348,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,7 +364,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/face_recognition_service/tcc/resultados.xlsx
+++ b/face_recognition_service/tcc/resultados.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="QUALIDADE - BAIXA E TODAS VERDA" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="QUALIDADE - ALTA E TODAS VERDAD" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="GERAL" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="FR QUALIDADE - BAIXA E TODAS VE" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="FR - QUALIDADE - ALTA E TODAS V" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">QUALIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMANHO MÉDIO DAS IMAGENS (KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUANTIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915.00 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.26 KB</t>
+  </si>
   <si>
     <t xml:space="preserve">Quantidade de imagens analisadas</t>
   </si>
@@ -35,16 +57,22 @@
     <t xml:space="preserve">Quantidade de imagens reconhecidas com sucesso</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamanho médio das imagens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.26 KB</t>
+    <t xml:space="preserve">Uso médio de CPU durante as comparações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.87 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso médio de cada núcleo da CPU durante as comparações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.341732283464567, 17.911023622047246, 1.450393700787402, 2.224409448818897, 4.113385826771652, 29.44488188976377, 4.752755905511812, 9.266141732283465, 2.7047244094488185, 1.7984251968503928, 2.640944881889763, 35.01338582677165]</t>
   </si>
   <si>
     <t xml:space="preserve">4.0571 segundos</t>
   </si>
   <si>
-    <t xml:space="preserve">915.00 KB</t>
+    <t xml:space="preserve">99.26</t>
   </si>
 </sst>
 </file>
@@ -54,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,13 +108,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,12 +170,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,49 +314,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>127</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -331,48 +377,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="n">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/face_recognition_service/tcc/resultados.xlsx
+++ b/face_recognition_service/tcc/resultados.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GERAL" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="FR QUALIDADE - BAIXA E TODAS VE" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="FR - QUALIDADE - ALTA E TODAS V" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="DF QUALIDADE - BAIXA E TODAS VE" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">QUALIDADE</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">99.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4055 segundos</t>
   </si>
 </sst>
 </file>
@@ -379,8 +383,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,4 +509,73 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>